--- a/mouseStillTime.xlsx
+++ b/mouseStillTime.xlsx
@@ -5,10 +5,10 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Thomas\Dev\Python\SWEN422\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Thomas\Dev\Unity\swen422-psychometric-game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{DEBD997A-02EC-4421-AEF2-A75516887563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{71FB288C-F38C-40D1-A0AD-50D9A78B2BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="5235" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -994,7 +994,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:J17"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
